--- a/data/trans_orig/Q23_1_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_1_2015-Estudios-trans_orig.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>15,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>16,16</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 15,94</t>
+          <t>15,21; 15,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,13; 18,45</t>
+          <t>17,16; 18,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 16,48</t>
+          <t>15,85; 16,46</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,69</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,22</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>16,81</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 16,94</t>
+          <t>16,27; 16,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,48</t>
+          <t>17,01; 17,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,09</t>
+          <t>16,5; 17,01</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 18,48</t>
+          <t>17,52; 18,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,49</t>
+          <t>17,59; 18,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,31</t>
+          <t>17,66; 18,38</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 16,84</t>
+          <t>16,33; 16,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,67</t>
+          <t>17,27; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,12</t>
+          <t>16,63; 17,06</t>
         </is>
       </c>
     </row>
